--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cedrm\Documents\files\Polymtl\session 6\MEC3900\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9DA55-DCE4-4D8E-9101-67CDEB3EF4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B08E64-CC2F-4010-BA4A-8C26B062D51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>SOURCE</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>3711T24</t>
+  </si>
+  <si>
+    <t>BATT HLDR COIN 20MM 2 CEL PC PIN</t>
   </si>
 </sst>
 </file>
@@ -384,18 +387,18 @@
     <v>4</v>
     <v>1.3898999999999999</v>
     <v>1.3089999999999999</v>
-    <v>-2.0000000000000001E-4</v>
-    <v>-1.4809999999999999E-4</v>
+    <v>-4.0000000000000002E-4</v>
+    <v>-2.9619999999999999E-4</v>
     <v>CAD</v>
     <v>USD</v>
-    <v>1.3504</v>
+    <v>1.3528</v>
     <v>Currency Pair</v>
-    <v>45347.945231481484</v>
+    <v>45348.858437499999</v>
     <v>1.3495999999999999</v>
     <v>US Dollar/Canadian Dollar FX Spot Rate</v>
     <v>1.3502000000000001</v>
     <v>1.3505</v>
-    <v>1.3503000000000001</v>
+    <v>1.3501000000000001</v>
     <v>USDCAD</v>
     <v>USD/CAD</v>
   </rv>
@@ -844,23 +847,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -895,14 +898,14 @@
       </c>
       <c r="E2" s="2">
         <f>2.31*'CURRENCY CONVERT'!$B$1</f>
-        <v>3.1191930000000001</v>
+        <v>3.1187310000000004</v>
       </c>
       <c r="F2" s="2">
         <f>E2*D2</f>
-        <v>15.595965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.593655000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -917,14 +920,14 @@
       </c>
       <c r="E3" s="2">
         <f>11.86/10*'CURRENCY CONVERT'!$B$1</f>
-        <v>1.6014558000000001</v>
+        <v>1.6012185999999999</v>
       </c>
       <c r="F3" s="2">
         <f>E3*D3</f>
-        <v>16.014558000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.012186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -939,14 +942,14 @@
       </c>
       <c r="E4" s="2">
         <f>4.33*'CURRENCY CONVERT'!$B$1</f>
-        <v>5.8467990000000007</v>
+        <v>5.8459330000000005</v>
       </c>
       <c r="F4" s="2">
         <f>E4*D4</f>
-        <v>11.693598000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.691866000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -967,7 +970,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1000,14 +1003,14 @@
       </c>
       <c r="E7" s="2">
         <f>101.65*'CURRENCY CONVERT'!$B$1</f>
-        <v>137.25799500000002</v>
+        <v>137.23766500000002</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>137.25799500000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137.23766500000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1066,11 +1069,11 @@
         <v>10.68</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:F11" si="1">E10</f>
+        <f t="shared" ref="F10:F12" si="1">E10</f>
         <v>10.68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1091,15 +1094,37 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1026</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.21</v>
+      </c>
       <c r="F12" s="2">
-        <f>SUM(F2:F11)</f>
-        <v>230.59211600000003</v>
+        <f t="shared" si="1"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <f>SUM(F2:F12)</f>
+        <v>232.77537200000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1111,15 +1136,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="1" cm="1">
         <f t="array" ref="B1">_FV(A1,"Price")</f>
-        <v>1.3503000000000001</v>
+        <v>1.3501000000000001</v>
       </c>
     </row>
   </sheetData>
